--- a/data/trans_dic/P78C9_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78C9_2023-Provincia-trans_dic.xlsx
@@ -861,12 +861,12 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>59,15%</t>
+          <t>60,51%</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>75,91%</t>
+          <t>73,81%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>81,58%</t>
+          <t>80,65%</t>
         </is>
       </c>
     </row>
@@ -984,12 +984,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,83; 100,0</t>
+          <t>13,78; 100,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21,86; 100,0</t>
+          <t>20,33; 100,0</t>
         </is>
       </c>
     </row>
